--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -33,10 +33,10 @@
     <t>Ha noi</t>
   </si>
   <si>
-    <t>nguyen van gdjbfjdsfd</t>
-  </si>
-  <si>
     <t>nam</t>
+  </si>
+  <si>
+    <t>nguyen van gdsfd</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,13 +405,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>123456789</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
